--- a/QueriesExcel/8.xlsx
+++ b/QueriesExcel/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD3482-4FAA-4230-9578-CBA4B78D6959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A05DD3B-BAC8-49FC-B3AA-E97CAEA27353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E00A8051-11F0-4C77-BD4E-0DB0724ABF00}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId2"/>
+    <pivotCache cacheId="61" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -135,7 +135,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -616,9 +616,8 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,6 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -671,54 +671,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
@@ -737,7 +698,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.969839467594" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C91B67B3-1111-4D8D-B60D-E5ACA165E12C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.031453009258" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C91B67B3-1111-4D8D-B60D-E5ACA165E12C}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="7">
     <cacheField name="[Measures].[Total W Disc USA]" caption="Total W Disc USA" numFmtId="0" hierarchy="163" level="32767"/>
@@ -1009,7 +970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B31001F1-A700-4D13-BA67-06899073B16E}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B31001F1-A700-4D13-BA67-06899073B16E}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:D43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1186,7 +1147,7 @@
     <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="16">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1195,7 +1156,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1725,7 +1686,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s" vm="1">
@@ -1733,7 +1694,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s" vm="2">
@@ -1741,503 +1702,503 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>75</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1555.85</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="1">
+        <v>1244.68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>154</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2983.3</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="D7" s="1">
+        <v>2386.64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>263</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>5261.7</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>4209.3599999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>193</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>6633.94</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>5307.152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>132</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>3366.6</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="D11" s="1">
+        <v>2693.2799999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>51</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1200.2</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
+      <c r="D12" s="1">
+        <v>960.16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>310</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
+        <v>10052.0906</v>
+      </c>
+      <c r="D14" s="1">
         <v>8041.6725000000006</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>262</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2">
+        <v>6282</v>
+      </c>
+      <c r="D15" s="1">
         <v>5025.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>64</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
+        <v>3023</v>
+      </c>
+      <c r="D16" s="1">
         <v>2418.3999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>261</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
+        <v>7127.0938000000006</v>
+      </c>
+      <c r="D18" s="1">
         <v>5701.6749999999993</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>420</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
+        <v>17224.884300000002</v>
+      </c>
+      <c r="D20" s="1">
         <v>13779.907500000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>225</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2">
+        <v>5312.8</v>
+      </c>
+      <c r="D21" s="1">
         <v>4250.24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>119</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2">
+        <v>4970.25</v>
+      </c>
+      <c r="D22" s="1">
         <v>3976.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>118</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2">
+        <v>1993.75</v>
+      </c>
+      <c r="D24" s="1">
         <v>1595</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>67</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="2">
+        <v>2231</v>
+      </c>
+      <c r="D25" s="1">
         <v>1784.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>82</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="2">
+        <v>1960.375</v>
+      </c>
+      <c r="D26" s="1">
         <v>1568.3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>193</v>
       </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2">
+        <v>13830.375</v>
+      </c>
+      <c r="D28" s="1">
         <v>11064.3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>5</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="2">
+        <v>185.4281</v>
+      </c>
+      <c r="D29" s="1">
         <v>148.3425</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>651</v>
       </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2">
+        <v>21356.418799999999</v>
+      </c>
+      <c r="D30" s="1">
         <v>17085.135000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>194</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>3285.7</v>
       </c>
-      <c r="D32" s="2">
-        <v>0</v>
+      <c r="D32" s="1">
+        <v>2628.5600000000004</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>21</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>1701</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
+      <c r="D33" s="1">
+        <v>1360.8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>351</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>6174.1</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
+      <c r="D34" s="1">
+        <v>4939.28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>93</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>2765.9</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
+      <c r="D36" s="1">
+        <v>2212.7199999999998</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>66</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>630.5</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
+      <c r="D37" s="1">
+        <v>504.4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>630</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>19024.650000000001</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
+      <c r="D38" s="1">
+        <v>15219.720000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>539</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>17564.250000000004</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
+      <c r="D40" s="1">
+        <v>14051.4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>245</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>4316.2000000000007</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
+      <c r="D41" s="1">
+        <v>3452.96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>210</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>4642</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
+      <c r="D42" s="1">
+        <v>3713.6000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>5994</v>
       </c>
-      <c r="C43" s="3">
-        <v>81105.89</v>
-      </c>
-      <c r="D43" s="2">
-        <v>76439.572500000009</v>
+      <c r="C43" s="2">
+        <v>176655.35560000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>141324.28449999998</v>
       </c>
     </row>
   </sheetData>
